--- a/صيدليات دكتور مصطفي طلعت_2026-01-07_22-03.xlsx
+++ b/صيدليات دكتور مصطفي طلعت_2026-01-07_22-03.xlsx
@@ -134,346 +134,358 @@
     <t>CONTAFEVER N 200MG/5ML SUSP. 120ML</t>
   </si>
   <si>
+    <t>18:0</t>
+  </si>
+  <si>
+    <t>CONVENTIN XR 600MG 30 TABS.</t>
+  </si>
+  <si>
+    <t>CRESTOLIP 10 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DALINE  DROPS</t>
+  </si>
+  <si>
+    <t>DANSET 4MG/2ML 3 AMP</t>
+  </si>
+  <si>
+    <t>2:1</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 100MG 5 SUPP</t>
+  </si>
+  <si>
+    <t>6:0</t>
+  </si>
+  <si>
+    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
+  </si>
+  <si>
+    <t>8:1</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE INAD PHARMA 3 AMP</t>
+  </si>
+  <si>
+    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>DIASTOP SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>3:0</t>
+  </si>
+  <si>
+    <t>DICLAC 75 ID 30 TAB</t>
+  </si>
+  <si>
+    <t>DOLIPRANE 1 GM 15 TABS.</t>
+  </si>
+  <si>
+    <t>11:0</t>
+  </si>
+  <si>
+    <t>DOLPHIN 25 MG 10 SUPP.</t>
+  </si>
+  <si>
+    <t>4:1</t>
+  </si>
+  <si>
+    <t>DROSPADIOL 0.03/3MG 21 F.C.TAB.</t>
+  </si>
+  <si>
+    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
+  </si>
+  <si>
+    <t>ECONET CREAM 60 GM</t>
+  </si>
+  <si>
+    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
+  </si>
+  <si>
+    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
+  </si>
+  <si>
+    <t>2:2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EVAL CARE  GEL</t>
+  </si>
+  <si>
+    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
+  </si>
+  <si>
+    <t>FLAGYL 500MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>FLOPADEX 8 MG 30 CAPSULES</t>
+  </si>
+  <si>
+    <t>FLUREST N 20 TABS</t>
+  </si>
+  <si>
+    <t>FOURVENT SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>10:0</t>
+  </si>
+  <si>
+    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
+  </si>
+  <si>
+    <t>0:8</t>
+  </si>
+  <si>
+    <t>HIBIOTIC 625MG 16 TAB.</t>
+  </si>
+  <si>
+    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
+  </si>
+  <si>
+    <t>INTEGROL 10MG 30 F.C. TABLETS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IVY PRONT  SYRUP</t>
+  </si>
+  <si>
+    <t>IVY ZAD SYRUP 120 ML</t>
+  </si>
+  <si>
+    <t>KETOFAN 50MG 30 CAPS.</t>
+  </si>
+  <si>
+    <t>KETOLAC 10MG 20 TAB</t>
+  </si>
+  <si>
+    <t>LAMIFEN 1% CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>LEVANIC 500MG 7 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
+  </si>
+  <si>
+    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
+  </si>
+  <si>
+    <t>LIDOCAINE 10% TOPICAL SPRAY 15 GM</t>
+  </si>
+  <si>
+    <t>LILIOX 10 SACHET</t>
+  </si>
+  <si>
+    <t>LIXORA EMOLLIENT GEL150ML</t>
+  </si>
+  <si>
+    <t>MANOVIPERCAINE PLUS TOPICAL SPRAY 15 ML</t>
+  </si>
+  <si>
+    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
+  </si>
+  <si>
+    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
+  </si>
+  <si>
+    <t>MICONAZ 2% ORAL GEL 20 GM</t>
+  </si>
+  <si>
+    <t>MILGA ADVANCE 30 F.C. TABS</t>
+  </si>
+  <si>
+    <t>MIXDERM CREAM 15 GM</t>
+  </si>
+  <si>
+    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
+  </si>
+  <si>
+    <t>NERHASILDA 75 MG 8 ORODISPERSIBLE FILMS</t>
+  </si>
+  <si>
+    <t>NEUROVIT 6 I.M. AMPS</t>
+  </si>
+  <si>
+    <t>3:3</t>
+  </si>
+  <si>
+    <t>NO-URIC 300MG 20 TAB.</t>
+  </si>
+  <si>
+    <t>OMEGA-3 PLUS 30 CAPS.</t>
+  </si>
+  <si>
+    <t>3:2</t>
+  </si>
+  <si>
+    <t>OPLEX N PLUS 10 SUPP.</t>
+  </si>
+  <si>
+    <t>7:0</t>
+  </si>
+  <si>
+    <t>OPLEX-N SYRUP 125ML</t>
+  </si>
+  <si>
+    <t>ORS 10 SACHET</t>
+  </si>
+  <si>
+    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>PANADOL ACUTE HEAD COLD</t>
+  </si>
+  <si>
+    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
+  </si>
+  <si>
+    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
+  </si>
+  <si>
+    <t>PANTOLOC 40MG 14 TAB</t>
+  </si>
+  <si>
+    <t>PEDICORT 5MG/5ML SYP. 100 ML</t>
+  </si>
+  <si>
+    <t>PREDSOL FORTE 15MG/5ML SYRUP 60ML</t>
+  </si>
+  <si>
+    <t>PROCYKINOL 5MG 50 TAB SACHET</t>
+  </si>
+  <si>
+    <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
+  </si>
+  <si>
+    <t>0:11</t>
+  </si>
+  <si>
+    <t>RELAXON 30 CAP</t>
+  </si>
+  <si>
+    <t>RESTOHERB SYRUP</t>
+  </si>
+  <si>
+    <t>8:0</t>
+  </si>
+  <si>
+    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
+  </si>
+  <si>
+    <t>SKINATRA TOP. OINT. 15 GM</t>
+  </si>
+  <si>
+    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
+  </si>
+  <si>
+    <t>TELFAST 120MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>TEXACORT 0.1% TOP. LIPOCREAM 20 GM</t>
+  </si>
+  <si>
+    <t>TORMEEL 5 MG 10 F.C. TAB.</t>
+  </si>
+  <si>
+    <t>TORSAMOLEX 20MG 20 TABS</t>
+  </si>
+  <si>
+    <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
+  </si>
+  <si>
+    <t>TUSSISTOP 60 MG 20 TABS.</t>
+  </si>
+  <si>
+    <t>UNICTAM 750 MG I.M/I.V VIAL</t>
+  </si>
+  <si>
+    <t>URGINAFECT 10MG 20 F.C. TAB</t>
+  </si>
+  <si>
+    <t>VENTOCOUGH SYRUP 125 ML</t>
+  </si>
+  <si>
+    <t>VIBRAMYCIN 100MG 10 CAPS.</t>
+  </si>
+  <si>
+    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
+  </si>
+  <si>
+    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
+  </si>
+  <si>
+    <t>WATER FOR INJECTION AMP. 5 ML</t>
+  </si>
+  <si>
+    <t>7791:0</t>
+  </si>
+  <si>
+    <t>XANTHISTOP 80 MG 30 TABLETS</t>
+  </si>
+  <si>
+    <t>ZITHOTRAC 500 MG 3 TAB</t>
+  </si>
+  <si>
+    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
+  </si>
+  <si>
+    <t>13:0</t>
+  </si>
+  <si>
+    <t>ايزي سويت قطعه</t>
+  </si>
+  <si>
+    <t>بلاستر مترسيلك 2.5 سم</t>
+  </si>
+  <si>
+    <t>37:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جنتيانا </t>
+  </si>
+  <si>
+    <t xml:space="preserve">جهاز محلول </t>
+  </si>
+  <si>
+    <t>15:0</t>
+  </si>
+  <si>
+    <t>حفاضات كبار سن ماكسويل 63ق</t>
+  </si>
+  <si>
+    <t>0:27</t>
+  </si>
+  <si>
+    <t>حنه جلوري سوده 1 كيس</t>
+  </si>
+  <si>
+    <t>سرنجات 10 سم</t>
+  </si>
+  <si>
+    <t>-3:0</t>
+  </si>
+  <si>
+    <t>سرنجات 3 سم</t>
+  </si>
+  <si>
+    <t>-5:0</t>
+  </si>
+  <si>
+    <t>سرنجات 5 سم</t>
+  </si>
+  <si>
+    <t>-1:0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">شفرات فينوس حريمي </t>
+  </si>
+  <si>
     <t>19:0</t>
-  </si>
-  <si>
-    <t>CONVENTIN XR 600MG 30 TABS.</t>
-  </si>
-  <si>
-    <t>CRESTOLIP 10 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DALINE  DROPS</t>
-  </si>
-  <si>
-    <t>DANSET 4MG/2ML 3 AMP</t>
-  </si>
-  <si>
-    <t>2:1</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 100MG 5 SUPP</t>
-  </si>
-  <si>
-    <t>6:0</t>
-  </si>
-  <si>
-    <t>DECLOPHEN 75MG/3ML 3 AMPOULES</t>
-  </si>
-  <si>
-    <t>8:1</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE INAD PHARMA 3 AMP</t>
-  </si>
-  <si>
-    <t>DEXAMETHASONE-AMRIYA 8MG/2ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>DIASTOP SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>3:0</t>
-  </si>
-  <si>
-    <t>DICLAC 75 ID 30 TAB</t>
-  </si>
-  <si>
-    <t>DOLIPRANE 1 GM 15 TABS.</t>
-  </si>
-  <si>
-    <t>11:0</t>
-  </si>
-  <si>
-    <t>DROSPADIOL 0.03/3MG 21 F.C.TAB.</t>
-  </si>
-  <si>
-    <t>DURICEF 500MG/5ML SUSP. 60ML</t>
-  </si>
-  <si>
-    <t>ECONET CREAM 60 GM</t>
-  </si>
-  <si>
-    <t>EPIMAG EFFERVESCENT 12 SACHETS</t>
-  </si>
-  <si>
-    <t>ERASTAPEX PLUS 20MG/12.5MG 30 TAB</t>
-  </si>
-  <si>
-    <t>2:2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EVAL CARE  GEL</t>
-  </si>
-  <si>
-    <t>FEMOGESAL 0.03/0.075MG 21 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>FLAGYL 125MG/5ML 100 ML SUSPENSION</t>
-  </si>
-  <si>
-    <t>FLAGYL 500MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>FLOPADEX 8 MG 30 CAPSULES</t>
-  </si>
-  <si>
-    <t>FLUREST N 20 TABS</t>
-  </si>
-  <si>
-    <t>FOURVENT SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>10:0</t>
-  </si>
-  <si>
-    <t>GAVISCON LIQUID 24 SACHETS 10 ML</t>
-  </si>
-  <si>
-    <t>0:8</t>
-  </si>
-  <si>
-    <t>HIBIOTIC 625MG 16 TAB.</t>
-  </si>
-  <si>
-    <t>INJECTMOL 1 GM/100ML VIAL FOR I.V. INF.</t>
-  </si>
-  <si>
-    <t>INTEGROL 10MG 30 F.C. TABLETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IVY PRONT  SYRUP</t>
-  </si>
-  <si>
-    <t>IVY ZAD SYRUP 120 ML</t>
-  </si>
-  <si>
-    <t>KETOFAN 50MG 30 CAPS.</t>
-  </si>
-  <si>
-    <t>KETOLAC 10MG 20 TAB</t>
-  </si>
-  <si>
-    <t>LAMIFEN 1% CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>LEVANIC 500MG 7 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5 MG 30 F.C.TABS.</t>
-  </si>
-  <si>
-    <t>LEVOHISTAM 5MG/10 ML SYRUP 120ML</t>
-  </si>
-  <si>
-    <t>LIDOCAINE 10% TOPICAL SPRAY 15 GM</t>
-  </si>
-  <si>
-    <t>LILIOX 10 SACHET</t>
-  </si>
-  <si>
-    <t>LIXORA EMOLLIENT GEL150ML</t>
-  </si>
-  <si>
-    <t>MANOVIPERCAINE PLUS TOPICAL SPRAY 15 ML</t>
-  </si>
-  <si>
-    <t>MAXILASE 200 CEIP UNIT/ML SYRUP 100ML</t>
-  </si>
-  <si>
-    <t>MEGAFEN-N 100MG/5ML SUSP. 120 ML</t>
-  </si>
-  <si>
-    <t>MICONAZ 2% ORAL GEL 20 GM</t>
-  </si>
-  <si>
-    <t>MILGA ADVANCE 30 F.C. TABS</t>
-  </si>
-  <si>
-    <t>MIXDERM CREAM 15 GM</t>
-  </si>
-  <si>
-    <t>MOTINORM 5 MG/5ML SUSP. 125 ML</t>
-  </si>
-  <si>
-    <t>NERHASILDA 75 MG 8 ORODISPERSIBLE FILMS</t>
-  </si>
-  <si>
-    <t>NEUROVIT 6 I.M. AMPS</t>
-  </si>
-  <si>
-    <t>3:3</t>
-  </si>
-  <si>
-    <t>NO-URIC 300MG 20 TAB.</t>
-  </si>
-  <si>
-    <t>OMEGA-3 PLUS 30 CAPS.</t>
-  </si>
-  <si>
-    <t>3:2</t>
-  </si>
-  <si>
-    <t>OPLEX N PLUS 10 SUPP.</t>
-  </si>
-  <si>
-    <t>7:0</t>
-  </si>
-  <si>
-    <t>OPLEX-N SYRUP 125ML</t>
-  </si>
-  <si>
-    <t>ORS 10 SACHET</t>
-  </si>
-  <si>
-    <t>OTRIVIN 0.05% PEDIATRIC NASAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>PANADOL ACUTE HEAD COLD</t>
-  </si>
-  <si>
-    <t>PANADOL ADVANCE 500 MG 48 TABLETS</t>
-  </si>
-  <si>
-    <t>PANTHENOL 2% TOPICAL CREAM 50 GM</t>
-  </si>
-  <si>
-    <t>PANTOLOC 40MG 14 TAB</t>
-  </si>
-  <si>
-    <t>PEDICORT 5MG/5ML SYP. 100 ML</t>
-  </si>
-  <si>
-    <t>PREDSOL FORTE 15MG/5ML SYRUP 60ML</t>
-  </si>
-  <si>
-    <t>PROCYKINOL 5MG 50 TAB SACHET</t>
-  </si>
-  <si>
-    <t>PULMICORT 0.25MG/ML 20 NEBULIZER VIAL SUSP.</t>
-  </si>
-  <si>
-    <t>0:11</t>
-  </si>
-  <si>
-    <t>RELAXON 30 CAP</t>
-  </si>
-  <si>
-    <t>SIMETHICONE 2% ORAL DROPS (30ML)</t>
-  </si>
-  <si>
-    <t>SKINATRA TOP. OINT. 15 GM</t>
-  </si>
-  <si>
-    <t>TEGRETOL CR 400MG 20 F.C. DIVITABS</t>
-  </si>
-  <si>
-    <t>TELFAST 120MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>TEXACORT 0.1% TOP. LIPOCREAM 20 GM</t>
-  </si>
-  <si>
-    <t>TORMEEL 5 MG 10 F.C. TAB.</t>
-  </si>
-  <si>
-    <t>TORSAMOLEX 20MG 20 TABS</t>
-  </si>
-  <si>
-    <t>TUSSISTOP 30MG/5ML SYRUP 100 ML</t>
-  </si>
-  <si>
-    <t>TUSSISTOP 60 MG 20 TABS.</t>
-  </si>
-  <si>
-    <t>URGINAFECT 10MG 20 F.C. TAB</t>
-  </si>
-  <si>
-    <t>VENTOCOUGH SYRUP 125 ML</t>
-  </si>
-  <si>
-    <t>VIBRAMYCIN 100MG 10 CAPS.</t>
-  </si>
-  <si>
-    <t>VIDROP 2800 I.U./ML ORAL DROPS 15 ML</t>
-  </si>
-  <si>
-    <t>VOLTAREN 75MG/3ML 3 AMP.</t>
-  </si>
-  <si>
-    <t>WATER FOR INJECTION AMP. 5 ML</t>
-  </si>
-  <si>
-    <t>7791:0</t>
-  </si>
-  <si>
-    <t>XANTHISTOP 80 MG 30 TABLETS</t>
-  </si>
-  <si>
-    <t>ZITHOTRAC 500 MG 3 TAB</t>
-  </si>
-  <si>
-    <t>ZURCAL 40MG 14 GASTRO RESISTANT TAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">اختبار حمل بيبي تشك </t>
-  </si>
-  <si>
-    <t>13:0</t>
-  </si>
-  <si>
-    <t>ايزي سويت قطعه</t>
-  </si>
-  <si>
-    <t>18:0</t>
-  </si>
-  <si>
-    <t>بلاستر مترسيلك 2.5 سم</t>
-  </si>
-  <si>
-    <t>37:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">جنتيانا </t>
-  </si>
-  <si>
-    <t xml:space="preserve">جهاز محلول </t>
-  </si>
-  <si>
-    <t>15:0</t>
-  </si>
-  <si>
-    <t>حفاضات كبار سن ماكسويل 63ق</t>
-  </si>
-  <si>
-    <t>0:27</t>
-  </si>
-  <si>
-    <t>حنه جلوري سوده 1 كيس</t>
-  </si>
-  <si>
-    <t>سرنجات 10 سم</t>
-  </si>
-  <si>
-    <t>-3:0</t>
-  </si>
-  <si>
-    <t>سرنجات 3 سم</t>
-  </si>
-  <si>
-    <t>-2:0</t>
-  </si>
-  <si>
-    <t>12:0</t>
-  </si>
-  <si>
-    <t>سرنجات 5 سم</t>
-  </si>
-  <si>
-    <t>-1:0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">شفرات فينوس حريمي </t>
   </si>
   <si>
     <t>صابون ديتول العنايه بالبشره</t>
@@ -1657,11 +1669,11 @@
       <c r="J25" s="8"/>
       <c r="K25" s="8"/>
       <c r="L25" s="9">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="M25" s="9"/>
       <c t="s" r="N25" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" ht="24.75" customHeight="1">
@@ -1963,17 +1975,17 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c t="s" r="H37" s="8">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="I37" s="8"/>
       <c r="J37" s="8"/>
       <c r="K37" s="8"/>
       <c r="L37" s="9">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="M37" s="9"/>
       <c t="s" r="N37" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" ht="25.5" customHeight="1">
@@ -1981,7 +1993,7 @@
         <v>35</v>
       </c>
       <c t="s" r="B38" s="7">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
@@ -1989,13 +2001,13 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c t="s" r="H38" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I38" s="8"/>
       <c r="J38" s="8"/>
       <c r="K38" s="8"/>
       <c r="L38" s="9">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="M38" s="9"/>
       <c t="s" r="N38" s="7">
@@ -2007,7 +2019,7 @@
         <v>36</v>
       </c>
       <c t="s" r="B39" s="7">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
@@ -2015,13 +2027,13 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c t="s" r="H39" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I39" s="8"/>
       <c r="J39" s="8"/>
       <c r="K39" s="8"/>
       <c r="L39" s="9">
-        <v>169</v>
+        <v>78</v>
       </c>
       <c r="M39" s="9"/>
       <c t="s" r="N39" s="7">
@@ -2033,7 +2045,7 @@
         <v>37</v>
       </c>
       <c t="s" r="B40" s="7">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
@@ -2041,13 +2053,13 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c t="s" r="H40" s="8">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="I40" s="8"/>
       <c r="J40" s="8"/>
       <c r="K40" s="8"/>
       <c r="L40" s="9">
-        <v>26</v>
+        <v>169</v>
       </c>
       <c r="M40" s="9"/>
       <c t="s" r="N40" s="7">
@@ -2059,7 +2071,7 @@
         <v>38</v>
       </c>
       <c t="s" r="B41" s="7">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
@@ -2067,7 +2079,7 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c t="s" r="H41" s="8">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="I41" s="8"/>
       <c r="J41" s="8"/>
@@ -2077,7 +2089,7 @@
       </c>
       <c r="M41" s="9"/>
       <c t="s" r="N41" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" ht="25.5" customHeight="1">
@@ -2093,17 +2105,17 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c t="s" r="H42" s="8">
-        <v>9</v>
+        <v>65</v>
       </c>
       <c r="I42" s="8"/>
       <c r="J42" s="8"/>
       <c r="K42" s="8"/>
       <c r="L42" s="9">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="M42" s="9"/>
       <c t="s" r="N42" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" ht="25.5" customHeight="1">
@@ -2111,7 +2123,7 @@
         <v>40</v>
       </c>
       <c t="s" r="B43" s="7">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
@@ -2119,13 +2131,13 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c t="s" r="H43" s="8">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="I43" s="8"/>
       <c r="J43" s="8"/>
       <c r="K43" s="8"/>
       <c r="L43" s="9">
-        <v>76</v>
+        <v>130</v>
       </c>
       <c r="M43" s="9"/>
       <c t="s" r="N43" s="7">
@@ -2137,7 +2149,7 @@
         <v>41</v>
       </c>
       <c t="s" r="B44" s="7">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
@@ -2145,13 +2157,13 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c t="s" r="H44" s="8">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="I44" s="8"/>
       <c r="J44" s="8"/>
       <c r="K44" s="8"/>
       <c r="L44" s="9">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="M44" s="9"/>
       <c t="s" r="N44" s="7">
@@ -2163,7 +2175,7 @@
         <v>42</v>
       </c>
       <c t="s" r="B45" s="7">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
@@ -2171,13 +2183,13 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c t="s" r="H45" s="8">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I45" s="8"/>
       <c r="J45" s="8"/>
       <c r="K45" s="8"/>
       <c r="L45" s="9">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="M45" s="9"/>
       <c t="s" r="N45" s="7">
@@ -2189,7 +2201,7 @@
         <v>43</v>
       </c>
       <c t="s" r="B46" s="7">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
@@ -2197,13 +2209,13 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c t="s" r="H46" s="8">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="I46" s="8"/>
       <c r="J46" s="8"/>
       <c r="K46" s="8"/>
       <c r="L46" s="9">
-        <v>175.22999999999999</v>
+        <v>34</v>
       </c>
       <c r="M46" s="9"/>
       <c t="s" r="N46" s="7">
@@ -2215,7 +2227,7 @@
         <v>44</v>
       </c>
       <c t="s" r="B47" s="7">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -2223,17 +2235,17 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c t="s" r="H47" s="8">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="I47" s="8"/>
       <c r="J47" s="8"/>
       <c r="K47" s="8"/>
       <c r="L47" s="9">
-        <v>16</v>
+        <v>175.22999999999999</v>
       </c>
       <c r="M47" s="9"/>
       <c t="s" r="N47" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="48" ht="25.5" customHeight="1">
@@ -2241,7 +2253,7 @@
         <v>45</v>
       </c>
       <c t="s" r="B48" s="7">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -2249,17 +2261,17 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c t="s" r="H48" s="8">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="I48" s="8"/>
       <c r="J48" s="8"/>
       <c r="K48" s="8"/>
       <c r="L48" s="9">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M48" s="9"/>
       <c t="s" r="N48" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" ht="24.75" customHeight="1">
@@ -2281,11 +2293,11 @@
       <c r="J49" s="8"/>
       <c r="K49" s="8"/>
       <c r="L49" s="9">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="M49" s="9"/>
       <c t="s" r="N49" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="25.5" customHeight="1">
@@ -2301,17 +2313,17 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c t="s" r="H50" s="8">
-        <v>9</v>
+        <v>75</v>
       </c>
       <c r="I50" s="8"/>
       <c r="J50" s="8"/>
       <c r="K50" s="8"/>
       <c r="L50" s="9">
-        <v>71.5</v>
+        <v>12</v>
       </c>
       <c r="M50" s="9"/>
       <c t="s" r="N50" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="51" ht="24.75" customHeight="1">
@@ -2319,7 +2331,7 @@
         <v>48</v>
       </c>
       <c t="s" r="B51" s="7">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C51" s="7"/>
       <c r="D51" s="7"/>
@@ -2327,17 +2339,17 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c t="s" r="H51" s="8">
-        <v>48</v>
+        <v>9</v>
       </c>
       <c r="I51" s="8"/>
       <c r="J51" s="8"/>
       <c r="K51" s="8"/>
       <c r="L51" s="9">
-        <v>67</v>
+        <v>71.5</v>
       </c>
       <c r="M51" s="9"/>
       <c t="s" r="N51" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="52" ht="25.5" customHeight="1">
@@ -2345,7 +2357,7 @@
         <v>49</v>
       </c>
       <c t="s" r="B52" s="7">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C52" s="7"/>
       <c r="D52" s="7"/>
@@ -2353,17 +2365,17 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c t="s" r="H52" s="8">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="I52" s="8"/>
       <c r="J52" s="8"/>
       <c r="K52" s="8"/>
       <c r="L52" s="9">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="M52" s="9"/>
       <c t="s" r="N52" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" ht="25.5" customHeight="1">
@@ -2371,7 +2383,7 @@
         <v>50</v>
       </c>
       <c t="s" r="B53" s="7">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
@@ -2379,17 +2391,17 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c t="s" r="H53" s="8">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="I53" s="8"/>
       <c r="J53" s="8"/>
       <c r="K53" s="8"/>
       <c r="L53" s="9">
-        <v>114</v>
+        <v>78</v>
       </c>
       <c r="M53" s="9"/>
       <c t="s" r="N53" s="7">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" ht="24.75" customHeight="1">
@@ -2397,7 +2409,7 @@
         <v>51</v>
       </c>
       <c t="s" r="B54" s="7">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -2411,11 +2423,11 @@
       <c r="J54" s="8"/>
       <c r="K54" s="8"/>
       <c r="L54" s="9">
-        <v>65</v>
+        <v>114</v>
       </c>
       <c r="M54" s="9"/>
       <c t="s" r="N54" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="55" ht="25.5" customHeight="1">
@@ -2423,7 +2435,7 @@
         <v>52</v>
       </c>
       <c t="s" r="B55" s="7">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C55" s="7"/>
       <c r="D55" s="7"/>
@@ -2431,17 +2443,17 @@
       <c r="F55" s="7"/>
       <c r="G55" s="7"/>
       <c t="s" r="H55" s="8">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="I55" s="8"/>
       <c r="J55" s="8"/>
       <c r="K55" s="8"/>
       <c r="L55" s="9">
-        <v>15</v>
+        <v>65</v>
       </c>
       <c r="M55" s="9"/>
       <c t="s" r="N55" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="24.75" customHeight="1">
@@ -2449,7 +2461,7 @@
         <v>53</v>
       </c>
       <c t="s" r="B56" s="7">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C56" s="7"/>
       <c r="D56" s="7"/>
@@ -2457,17 +2469,17 @@
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
       <c t="s" r="H56" s="8">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I56" s="8"/>
       <c r="J56" s="8"/>
       <c r="K56" s="8"/>
       <c r="L56" s="9">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="M56" s="9"/>
       <c t="s" r="N56" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" ht="25.5" customHeight="1">
@@ -2475,7 +2487,7 @@
         <v>54</v>
       </c>
       <c t="s" r="B57" s="7">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
@@ -2483,17 +2495,17 @@
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
       <c t="s" r="H57" s="8">
-        <v>54</v>
+        <v>9</v>
       </c>
       <c r="I57" s="8"/>
       <c r="J57" s="8"/>
       <c r="K57" s="8"/>
       <c r="L57" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="M57" s="9"/>
       <c t="s" r="N57" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" ht="25.5" customHeight="1">
@@ -2501,7 +2513,7 @@
         <v>55</v>
       </c>
       <c t="s" r="B58" s="7">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="7"/>
@@ -2509,13 +2521,13 @@
       <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c t="s" r="H58" s="8">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="I58" s="8"/>
       <c r="J58" s="8"/>
       <c r="K58" s="8"/>
       <c r="L58" s="9">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="M58" s="9"/>
       <c t="s" r="N58" s="7">
@@ -2527,7 +2539,7 @@
         <v>56</v>
       </c>
       <c t="s" r="B59" s="7">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C59" s="7"/>
       <c r="D59" s="7"/>
@@ -2535,17 +2547,17 @@
       <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c t="s" r="H59" s="8">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I59" s="8"/>
       <c r="J59" s="8"/>
       <c r="K59" s="8"/>
       <c r="L59" s="9">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="M59" s="9"/>
       <c t="s" r="N59" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" ht="25.5" customHeight="1">
@@ -2553,7 +2565,7 @@
         <v>57</v>
       </c>
       <c t="s" r="B60" s="7">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C60" s="7"/>
       <c r="D60" s="7"/>
@@ -2561,7 +2573,7 @@
       <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c t="s" r="H60" s="8">
-        <v>54</v>
+        <v>14</v>
       </c>
       <c r="I60" s="8"/>
       <c r="J60" s="8"/>
@@ -2571,7 +2583,7 @@
       </c>
       <c r="M60" s="9"/>
       <c t="s" r="N60" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" ht="24.75" customHeight="1">
@@ -2579,7 +2591,7 @@
         <v>58</v>
       </c>
       <c t="s" r="B61" s="7">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -2587,17 +2599,17 @@
       <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c t="s" r="H61" s="8">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I61" s="8"/>
       <c r="J61" s="8"/>
       <c r="K61" s="8"/>
       <c r="L61" s="9">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="M61" s="9"/>
       <c t="s" r="N61" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="62" ht="25.5" customHeight="1">
@@ -2605,7 +2617,7 @@
         <v>59</v>
       </c>
       <c t="s" r="B62" s="7">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -2613,13 +2625,13 @@
       <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c t="s" r="H62" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I62" s="8"/>
       <c r="J62" s="8"/>
       <c r="K62" s="8"/>
       <c r="L62" s="9">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="M62" s="9"/>
       <c t="s" r="N62" s="7">
@@ -2631,7 +2643,7 @@
         <v>60</v>
       </c>
       <c t="s" r="B63" s="7">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
@@ -2645,7 +2657,7 @@
       <c r="J63" s="8"/>
       <c r="K63" s="8"/>
       <c r="L63" s="9">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="M63" s="9"/>
       <c t="s" r="N63" s="7">
@@ -2657,7 +2669,7 @@
         <v>61</v>
       </c>
       <c t="s" r="B64" s="7">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
@@ -2671,7 +2683,7 @@
       <c r="J64" s="8"/>
       <c r="K64" s="8"/>
       <c r="L64" s="9">
-        <v>36.5</v>
+        <v>350</v>
       </c>
       <c r="M64" s="9"/>
       <c t="s" r="N64" s="7">
@@ -2683,7 +2695,7 @@
         <v>62</v>
       </c>
       <c t="s" r="B65" s="7">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
@@ -2691,13 +2703,13 @@
       <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c t="s" r="H65" s="8">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I65" s="8"/>
       <c r="J65" s="8"/>
       <c r="K65" s="8"/>
       <c r="L65" s="9">
-        <v>57</v>
+        <v>36.5</v>
       </c>
       <c r="M65" s="9"/>
       <c t="s" r="N65" s="7">
@@ -2709,7 +2721,7 @@
         <v>63</v>
       </c>
       <c t="s" r="B66" s="7">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
@@ -2717,13 +2729,13 @@
       <c r="F66" s="7"/>
       <c r="G66" s="7"/>
       <c t="s" r="H66" s="8">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I66" s="8"/>
       <c r="J66" s="8"/>
       <c r="K66" s="8"/>
       <c r="L66" s="9">
-        <v>35</v>
+        <v>57</v>
       </c>
       <c r="M66" s="9"/>
       <c t="s" r="N66" s="7">
@@ -2735,7 +2747,7 @@
         <v>64</v>
       </c>
       <c t="s" r="B67" s="7">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
@@ -2743,17 +2755,17 @@
       <c r="F67" s="7"/>
       <c r="G67" s="7"/>
       <c t="s" r="H67" s="8">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I67" s="8"/>
       <c r="J67" s="8"/>
       <c r="K67" s="8"/>
       <c r="L67" s="9">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="M67" s="9"/>
       <c t="s" r="N67" s="7">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="25.5" customHeight="1">
@@ -2761,7 +2773,7 @@
         <v>65</v>
       </c>
       <c t="s" r="B68" s="7">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
@@ -2769,17 +2781,17 @@
       <c r="F68" s="7"/>
       <c r="G68" s="7"/>
       <c t="s" r="H68" s="8">
-        <v>39</v>
+        <v>8</v>
       </c>
       <c r="I68" s="8"/>
       <c r="J68" s="8"/>
       <c r="K68" s="8"/>
       <c r="L68" s="9">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="M68" s="9"/>
       <c t="s" r="N68" s="7">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" ht="24.75" customHeight="1">
@@ -2787,7 +2799,7 @@
         <v>66</v>
       </c>
       <c t="s" r="B69" s="7">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
@@ -2795,17 +2807,17 @@
       <c r="F69" s="7"/>
       <c r="G69" s="7"/>
       <c t="s" r="H69" s="8">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="I69" s="8"/>
       <c r="J69" s="8"/>
       <c r="K69" s="8"/>
       <c r="L69" s="9">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="M69" s="9"/>
       <c t="s" r="N69" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="70" ht="25.5" customHeight="1">
@@ -2813,7 +2825,7 @@
         <v>67</v>
       </c>
       <c t="s" r="B70" s="7">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
@@ -2821,13 +2833,13 @@
       <c r="F70" s="7"/>
       <c r="G70" s="7"/>
       <c t="s" r="H70" s="8">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I70" s="8"/>
       <c r="J70" s="8"/>
       <c r="K70" s="8"/>
       <c r="L70" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M70" s="9"/>
       <c t="s" r="N70" s="7">
@@ -2839,7 +2851,7 @@
         <v>68</v>
       </c>
       <c t="s" r="B71" s="7">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
@@ -2847,17 +2859,17 @@
       <c r="F71" s="7"/>
       <c r="G71" s="7"/>
       <c t="s" r="H71" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I71" s="8"/>
       <c r="J71" s="8"/>
       <c r="K71" s="8"/>
       <c r="L71" s="9">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M71" s="9"/>
       <c t="s" r="N71" s="7">
-        <v>73</v>
+        <v>9</v>
       </c>
     </row>
     <row r="72" ht="25.5" customHeight="1">
@@ -2865,7 +2877,7 @@
         <v>69</v>
       </c>
       <c t="s" r="B72" s="7">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
@@ -2873,17 +2885,17 @@
       <c r="F72" s="7"/>
       <c r="G72" s="7"/>
       <c t="s" r="H72" s="8">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="I72" s="8"/>
       <c r="J72" s="8"/>
       <c r="K72" s="8"/>
       <c r="L72" s="9">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="M72" s="9"/>
       <c t="s" r="N72" s="7">
-        <v>8</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" ht="25.5" customHeight="1">
@@ -2899,17 +2911,17 @@
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
       <c t="s" r="H73" s="8">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="I73" s="8"/>
       <c r="J73" s="8"/>
       <c r="K73" s="8"/>
       <c r="L73" s="9">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="M73" s="9"/>
       <c t="s" r="N73" s="7">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" ht="24.75" customHeight="1">
@@ -2917,7 +2929,7 @@
         <v>71</v>
       </c>
       <c t="s" r="B74" s="7">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
@@ -2925,17 +2937,17 @@
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
       <c t="s" r="H74" s="8">
-        <v>100</v>
+        <v>14</v>
       </c>
       <c r="I74" s="8"/>
       <c r="J74" s="8"/>
       <c r="K74" s="8"/>
       <c r="L74" s="9">
-        <v>-135</v>
+        <v>19</v>
       </c>
       <c r="M74" s="9"/>
       <c t="s" r="N74" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="75" ht="25.5" customHeight="1">
@@ -2957,11 +2969,11 @@
       <c r="J75" s="8"/>
       <c r="K75" s="8"/>
       <c r="L75" s="9">
-        <v>16</v>
+        <v>-135</v>
       </c>
       <c r="M75" s="9"/>
       <c t="s" r="N75" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="76" ht="24.75" customHeight="1">
@@ -2977,17 +2989,17 @@
       <c r="F76" s="7"/>
       <c r="G76" s="7"/>
       <c t="s" r="H76" s="8">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="I76" s="8"/>
       <c r="J76" s="8"/>
       <c r="K76" s="8"/>
       <c r="L76" s="9">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="M76" s="9"/>
       <c t="s" r="N76" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="77" ht="25.5" customHeight="1">
@@ -2995,7 +3007,7 @@
         <v>74</v>
       </c>
       <c t="s" r="B77" s="7">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
@@ -3003,17 +3015,17 @@
       <c r="F77" s="7"/>
       <c r="G77" s="7"/>
       <c t="s" r="H77" s="8">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="I77" s="8"/>
       <c r="J77" s="8"/>
       <c r="K77" s="8"/>
       <c r="L77" s="9">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="M77" s="9"/>
       <c t="s" r="N77" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="78" ht="25.5" customHeight="1">
@@ -3021,7 +3033,7 @@
         <v>75</v>
       </c>
       <c t="s" r="B78" s="7">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
@@ -3029,17 +3041,17 @@
       <c r="F78" s="7"/>
       <c r="G78" s="7"/>
       <c t="s" r="H78" s="8">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I78" s="8"/>
       <c r="J78" s="8"/>
       <c r="K78" s="8"/>
       <c r="L78" s="9">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="M78" s="9"/>
       <c t="s" r="N78" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="79" ht="24.75" customHeight="1">
@@ -3047,7 +3059,7 @@
         <v>76</v>
       </c>
       <c t="s" r="B79" s="7">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
@@ -3055,17 +3067,17 @@
       <c r="F79" s="7"/>
       <c r="G79" s="7"/>
       <c t="s" r="H79" s="8">
-        <v>54</v>
+        <v>28</v>
       </c>
       <c r="I79" s="8"/>
       <c r="J79" s="8"/>
       <c r="K79" s="8"/>
       <c r="L79" s="9">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="M79" s="9"/>
       <c t="s" r="N79" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" ht="25.5" customHeight="1">
@@ -3073,7 +3085,7 @@
         <v>77</v>
       </c>
       <c t="s" r="B80" s="7">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
@@ -3081,17 +3093,17 @@
       <c r="F80" s="7"/>
       <c r="G80" s="7"/>
       <c t="s" r="H80" s="8">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="I80" s="8"/>
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="9">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="M80" s="9"/>
       <c t="s" r="N80" s="7">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="81" ht="24.75" customHeight="1">
@@ -3099,7 +3111,7 @@
         <v>78</v>
       </c>
       <c t="s" r="B81" s="7">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C81" s="7"/>
       <c r="D81" s="7"/>
@@ -3107,17 +3119,17 @@
       <c r="F81" s="7"/>
       <c r="G81" s="7"/>
       <c t="s" r="H81" s="8">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="I81" s="8"/>
       <c r="J81" s="8"/>
       <c r="K81" s="8"/>
       <c r="L81" s="9">
-        <v>78.400000000000006</v>
+        <v>23</v>
       </c>
       <c r="M81" s="9"/>
       <c t="s" r="N81" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="82" ht="25.5" customHeight="1">
@@ -3125,7 +3137,7 @@
         <v>79</v>
       </c>
       <c t="s" r="B82" s="7">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
@@ -3133,17 +3145,17 @@
       <c r="F82" s="7"/>
       <c r="G82" s="7"/>
       <c t="s" r="H82" s="8">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I82" s="8"/>
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="9">
-        <v>51</v>
+        <v>78.400000000000006</v>
       </c>
       <c r="M82" s="9"/>
       <c t="s" r="N82" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="83" ht="25.5" customHeight="1">
@@ -3151,7 +3163,7 @@
         <v>80</v>
       </c>
       <c t="s" r="B83" s="7">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C83" s="7"/>
       <c r="D83" s="7"/>
@@ -3159,17 +3171,17 @@
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
       <c t="s" r="H83" s="8">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="I83" s="8"/>
       <c r="J83" s="8"/>
       <c r="K83" s="8"/>
       <c r="L83" s="9">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="M83" s="9"/>
       <c t="s" r="N83" s="7">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="84" ht="24.75" customHeight="1">
@@ -3177,7 +3189,7 @@
         <v>81</v>
       </c>
       <c t="s" r="B84" s="7">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
@@ -3185,17 +3197,17 @@
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
       <c t="s" r="H84" s="8">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="I84" s="8"/>
       <c r="J84" s="8"/>
       <c r="K84" s="8"/>
       <c r="L84" s="9">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="M84" s="9"/>
       <c t="s" r="N84" s="7">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85" ht="25.5" customHeight="1">
@@ -3203,7 +3215,7 @@
         <v>82</v>
       </c>
       <c t="s" r="B85" s="7">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
@@ -3211,13 +3223,13 @@
       <c r="F85" s="7"/>
       <c r="G85" s="7"/>
       <c t="s" r="H85" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I85" s="8"/>
       <c r="J85" s="8"/>
       <c r="K85" s="8"/>
       <c r="L85" s="9">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="M85" s="9"/>
       <c t="s" r="N85" s="7">
@@ -3229,7 +3241,7 @@
         <v>83</v>
       </c>
       <c t="s" r="B86" s="7">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
@@ -3237,17 +3249,17 @@
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
       <c t="s" r="H86" s="8">
-        <v>114</v>
+        <v>8</v>
       </c>
       <c r="I86" s="8"/>
       <c r="J86" s="8"/>
       <c r="K86" s="8"/>
       <c r="L86" s="9">
-        <v>28.199999999999999</v>
+        <v>58</v>
       </c>
       <c r="M86" s="9"/>
       <c t="s" r="N86" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="25.5" customHeight="1">
@@ -3263,13 +3275,13 @@
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
       <c t="s" r="H87" s="8">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="I87" s="8"/>
       <c r="J87" s="8"/>
       <c r="K87" s="8"/>
       <c r="L87" s="9">
-        <v>23</v>
+        <v>28.199999999999999</v>
       </c>
       <c r="M87" s="9"/>
       <c t="s" r="N87" s="7">
@@ -3281,7 +3293,7 @@
         <v>85</v>
       </c>
       <c t="s" r="B88" s="7">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
@@ -3289,17 +3301,17 @@
       <c r="F88" s="7"/>
       <c r="G88" s="7"/>
       <c t="s" r="H88" s="8">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="I88" s="8"/>
       <c r="J88" s="8"/>
       <c r="K88" s="8"/>
       <c r="L88" s="9">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M88" s="9"/>
       <c t="s" r="N88" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="89" ht="24.75" customHeight="1">
@@ -3307,7 +3319,7 @@
         <v>86</v>
       </c>
       <c t="s" r="B89" s="7">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
@@ -3315,13 +3327,13 @@
       <c r="F89" s="7"/>
       <c r="G89" s="7"/>
       <c t="s" r="H89" s="8">
-        <v>9</v>
+        <v>119</v>
       </c>
       <c r="I89" s="8"/>
       <c r="J89" s="8"/>
       <c r="K89" s="8"/>
       <c r="L89" s="9">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="M89" s="9"/>
       <c t="s" r="N89" s="7">
@@ -3333,7 +3345,7 @@
         <v>87</v>
       </c>
       <c t="s" r="B90" s="7">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
@@ -3341,17 +3353,17 @@
       <c r="F90" s="7"/>
       <c r="G90" s="7"/>
       <c t="s" r="H90" s="8">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="I90" s="8"/>
       <c r="J90" s="8"/>
       <c r="K90" s="8"/>
       <c r="L90" s="9">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M90" s="9"/>
       <c t="s" r="N90" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" ht="24.75" customHeight="1">
@@ -3359,7 +3371,7 @@
         <v>88</v>
       </c>
       <c t="s" r="B91" s="7">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
@@ -3367,17 +3379,17 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c t="s" r="H91" s="8">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="I91" s="8"/>
       <c r="J91" s="8"/>
       <c r="K91" s="8"/>
       <c r="L91" s="9">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M91" s="9"/>
       <c t="s" r="N91" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="92" ht="25.5" customHeight="1">
@@ -3385,7 +3397,7 @@
         <v>89</v>
       </c>
       <c t="s" r="B92" s="7">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
@@ -3399,11 +3411,11 @@
       <c r="J92" s="8"/>
       <c r="K92" s="8"/>
       <c r="L92" s="9">
-        <v>22</v>
+        <v>53</v>
       </c>
       <c r="M92" s="9"/>
       <c t="s" r="N92" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" ht="25.5" customHeight="1">
@@ -3411,7 +3423,7 @@
         <v>90</v>
       </c>
       <c t="s" r="B93" s="7">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
@@ -3419,17 +3431,17 @@
       <c r="F93" s="7"/>
       <c r="G93" s="7"/>
       <c t="s" r="H93" s="8">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="I93" s="8"/>
       <c r="J93" s="8"/>
       <c r="K93" s="8"/>
       <c r="L93" s="9">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="M93" s="9"/>
       <c t="s" r="N93" s="7">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="94" ht="24.75" customHeight="1">
@@ -3437,7 +3449,7 @@
         <v>91</v>
       </c>
       <c t="s" r="B94" s="7">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C94" s="7"/>
       <c r="D94" s="7"/>
@@ -3445,13 +3457,13 @@
       <c r="F94" s="7"/>
       <c r="G94" s="7"/>
       <c t="s" r="H94" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I94" s="8"/>
       <c r="J94" s="8"/>
       <c r="K94" s="8"/>
       <c r="L94" s="9">
-        <v>62</v>
+        <v>22</v>
       </c>
       <c r="M94" s="9"/>
       <c t="s" r="N94" s="7">
@@ -3463,7 +3475,7 @@
         <v>92</v>
       </c>
       <c t="s" r="B95" s="7">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C95" s="7"/>
       <c r="D95" s="7"/>
@@ -3471,13 +3483,13 @@
       <c r="F95" s="7"/>
       <c r="G95" s="7"/>
       <c t="s" r="H95" s="8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I95" s="8"/>
       <c r="J95" s="8"/>
       <c r="K95" s="8"/>
       <c r="L95" s="9">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="M95" s="9"/>
       <c t="s" r="N95" s="7">
@@ -3489,7 +3501,7 @@
         <v>93</v>
       </c>
       <c t="s" r="B96" s="7">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C96" s="7"/>
       <c r="D96" s="7"/>
@@ -3497,13 +3509,13 @@
       <c r="F96" s="7"/>
       <c r="G96" s="7"/>
       <c t="s" r="H96" s="8">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="I96" s="8"/>
       <c r="J96" s="8"/>
       <c r="K96" s="8"/>
       <c r="L96" s="9">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M96" s="9"/>
       <c t="s" r="N96" s="7">
@@ -3515,7 +3527,7 @@
         <v>94</v>
       </c>
       <c t="s" r="B97" s="7">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C97" s="7"/>
       <c r="D97" s="7"/>
@@ -3523,17 +3535,17 @@
       <c r="F97" s="7"/>
       <c r="G97" s="7"/>
       <c t="s" r="H97" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I97" s="8"/>
       <c r="J97" s="8"/>
       <c r="K97" s="8"/>
       <c r="L97" s="9">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M97" s="9"/>
       <c t="s" r="N97" s="7">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" ht="25.5" customHeight="1">
@@ -3541,7 +3553,7 @@
         <v>95</v>
       </c>
       <c t="s" r="B98" s="7">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C98" s="7"/>
       <c r="D98" s="7"/>
@@ -3549,13 +3561,13 @@
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
       <c t="s" r="H98" s="8">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="I98" s="8"/>
       <c r="J98" s="8"/>
       <c r="K98" s="8"/>
       <c r="L98" s="9">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="M98" s="9"/>
       <c t="s" r="N98" s="7">
@@ -3567,7 +3579,7 @@
         <v>96</v>
       </c>
       <c t="s" r="B99" s="7">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C99" s="7"/>
       <c r="D99" s="7"/>
@@ -3575,17 +3587,17 @@
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
       <c t="s" r="H99" s="8">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="I99" s="8"/>
       <c r="J99" s="8"/>
       <c r="K99" s="8"/>
       <c r="L99" s="9">
-        <v>65</v>
+        <v>156</v>
       </c>
       <c r="M99" s="9"/>
       <c t="s" r="N99" s="7">
-        <v>9</v>
+        <v>26</v>
       </c>
     </row>
     <row r="100" ht="25.5" customHeight="1">
@@ -3593,7 +3605,7 @@
         <v>97</v>
       </c>
       <c t="s" r="B100" s="7">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C100" s="7"/>
       <c r="D100" s="7"/>
@@ -3601,17 +3613,17 @@
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
       <c t="s" r="H100" s="8">
-        <v>102</v>
+        <v>8</v>
       </c>
       <c r="I100" s="8"/>
       <c r="J100" s="8"/>
       <c r="K100" s="8"/>
       <c r="L100" s="9">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="M100" s="9"/>
       <c t="s" r="N100" s="7">
-        <v>30</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" ht="24.75" customHeight="1">
@@ -3619,7 +3631,7 @@
         <v>98</v>
       </c>
       <c t="s" r="B101" s="7">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C101" s="7"/>
       <c r="D101" s="7"/>
@@ -3627,17 +3639,17 @@
       <c r="F101" s="7"/>
       <c r="G101" s="7"/>
       <c t="s" r="H101" s="8">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="I101" s="8"/>
       <c r="J101" s="8"/>
       <c r="K101" s="8"/>
       <c r="L101" s="9">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="M101" s="9"/>
       <c t="s" r="N101" s="7">
-        <v>20</v>
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="25.5" customHeight="1">
@@ -3645,7 +3657,7 @@
         <v>99</v>
       </c>
       <c t="s" r="B102" s="7">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C102" s="7"/>
       <c r="D102" s="7"/>
@@ -3653,17 +3665,17 @@
       <c r="F102" s="7"/>
       <c r="G102" s="7"/>
       <c t="s" r="H102" s="8">
-        <v>131</v>
+        <v>14</v>
       </c>
       <c r="I102" s="8"/>
       <c r="J102" s="8"/>
       <c r="K102" s="8"/>
       <c r="L102" s="9">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="M102" s="9"/>
       <c t="s" r="N102" s="7">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" ht="25.5" customHeight="1">
@@ -3671,7 +3683,7 @@
         <v>100</v>
       </c>
       <c t="s" r="B103" s="7">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C103" s="7"/>
       <c r="D103" s="7"/>
@@ -3679,17 +3691,17 @@
       <c r="F103" s="7"/>
       <c r="G103" s="7"/>
       <c t="s" r="H103" s="8">
-        <v>18</v>
+        <v>104</v>
       </c>
       <c r="I103" s="8"/>
       <c r="J103" s="8"/>
       <c r="K103" s="8"/>
       <c r="L103" s="9">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="M103" s="9"/>
       <c t="s" r="N103" s="7">
-        <v>8</v>
+        <v>30</v>
       </c>
     </row>
     <row r="104" ht="24.75" customHeight="1">
@@ -3697,7 +3709,7 @@
         <v>101</v>
       </c>
       <c t="s" r="B104" s="7">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C104" s="7"/>
       <c r="D104" s="7"/>
@@ -3705,17 +3717,17 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c t="s" r="H104" s="8">
-        <v>8</v>
+        <v>99</v>
       </c>
       <c r="I104" s="8"/>
       <c r="J104" s="8"/>
       <c r="K104" s="8"/>
       <c r="L104" s="9">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="M104" s="9"/>
       <c t="s" r="N104" s="7">
-        <v>9</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" ht="25.5" customHeight="1">
@@ -3723,7 +3735,7 @@
         <v>102</v>
       </c>
       <c t="s" r="B105" s="7">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C105" s="7"/>
       <c r="D105" s="7"/>
@@ -3731,17 +3743,17 @@
       <c r="F105" s="7"/>
       <c r="G105" s="7"/>
       <c t="s" r="H105" s="8">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="I105" s="8"/>
       <c r="J105" s="8"/>
       <c r="K105" s="8"/>
       <c r="L105" s="9">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="M105" s="9"/>
       <c t="s" r="N105" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="106" ht="24.75" customHeight="1">
@@ -3749,7 +3761,7 @@
         <v>103</v>
       </c>
       <c t="s" r="B106" s="7">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
@@ -3757,17 +3769,17 @@
       <c r="F106" s="7"/>
       <c r="G106" s="7"/>
       <c t="s" r="H106" s="8">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="I106" s="8"/>
       <c r="J106" s="8"/>
       <c r="K106" s="8"/>
       <c r="L106" s="9">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="M106" s="9"/>
       <c t="s" r="N106" s="7">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" ht="25.5" customHeight="1">
@@ -3775,7 +3787,7 @@
         <v>104</v>
       </c>
       <c t="s" r="B107" s="7">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C107" s="7"/>
       <c r="D107" s="7"/>
@@ -3783,13 +3795,13 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c t="s" r="H107" s="8">
-        <v>138</v>
+        <v>8</v>
       </c>
       <c r="I107" s="8"/>
       <c r="J107" s="8"/>
       <c r="K107" s="8"/>
       <c r="L107" s="9">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="M107" s="9"/>
       <c t="s" r="N107" s="7">
@@ -3809,13 +3821,13 @@
       <c r="F108" s="7"/>
       <c r="G108" s="7"/>
       <c t="s" r="H108" s="8">
-        <v>140</v>
+        <v>28</v>
       </c>
       <c r="I108" s="8"/>
       <c r="J108" s="8"/>
       <c r="K108" s="8"/>
       <c r="L108" s="9">
-        <v>25</v>
+        <v>96</v>
       </c>
       <c r="M108" s="9"/>
       <c t="s" r="N108" s="7">
@@ -3827,7 +3839,7 @@
         <v>106</v>
       </c>
       <c t="s" r="B109" s="7">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
@@ -3835,13 +3847,13 @@
       <c r="F109" s="7"/>
       <c r="G109" s="7"/>
       <c t="s" r="H109" s="8">
-        <v>28</v>
+        <v>141</v>
       </c>
       <c r="I109" s="8"/>
       <c r="J109" s="8"/>
       <c r="K109" s="8"/>
       <c r="L109" s="9">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="M109" s="9"/>
       <c t="s" r="N109" s="7">
@@ -3861,13 +3873,13 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c t="s" r="H110" s="8">
-        <v>143</v>
+        <v>41</v>
       </c>
       <c r="I110" s="8"/>
       <c r="J110" s="8"/>
       <c r="K110" s="8"/>
       <c r="L110" s="9">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="M110" s="9"/>
       <c t="s" r="N110" s="7">
@@ -3879,7 +3891,7 @@
         <v>108</v>
       </c>
       <c t="s" r="B111" s="7">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C111" s="7"/>
       <c r="D111" s="7"/>
@@ -3887,17 +3899,17 @@
       <c r="F111" s="7"/>
       <c r="G111" s="7"/>
       <c t="s" r="H111" s="8">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I111" s="8"/>
       <c r="J111" s="8"/>
       <c r="K111" s="8"/>
       <c r="L111" s="9">
-        <v>11.67</v>
+        <v>25</v>
       </c>
       <c r="M111" s="9"/>
       <c t="s" r="N111" s="7">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="112" ht="25.5" customHeight="1">
@@ -3905,7 +3917,7 @@
         <v>109</v>
       </c>
       <c t="s" r="B112" s="7">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
@@ -3913,13 +3925,13 @@
       <c r="F112" s="7"/>
       <c r="G112" s="7"/>
       <c t="s" r="H112" s="8">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="I112" s="8"/>
       <c r="J112" s="8"/>
       <c r="K112" s="8"/>
       <c r="L112" s="9">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="M112" s="9"/>
       <c t="s" r="N112" s="7">
@@ -3931,7 +3943,7 @@
         <v>110</v>
       </c>
       <c t="s" r="B113" s="7">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C113" s="7"/>
       <c r="D113" s="7"/>
@@ -3939,17 +3951,17 @@
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
       <c t="s" r="H113" s="8">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="I113" s="8"/>
       <c r="J113" s="8"/>
       <c r="K113" s="8"/>
       <c r="L113" s="9">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="M113" s="9"/>
       <c t="s" r="N113" s="7">
-        <v>102</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" ht="24.75" customHeight="1">
@@ -3957,7 +3969,7 @@
         <v>111</v>
       </c>
       <c t="s" r="B114" s="7">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
@@ -3965,17 +3977,17 @@
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
       <c t="s" r="H114" s="8">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I114" s="8"/>
       <c r="J114" s="8"/>
       <c r="K114" s="8"/>
       <c r="L114" s="9">
-        <v>24</v>
+        <v>11.67</v>
       </c>
       <c r="M114" s="9"/>
       <c t="s" r="N114" s="7">
-        <v>151</v>
+        <v>8</v>
       </c>
     </row>
     <row r="115" ht="25.5" customHeight="1">
@@ -3983,7 +3995,7 @@
         <v>112</v>
       </c>
       <c t="s" r="B115" s="7">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C115" s="7"/>
       <c r="D115" s="7"/>
@@ -3991,17 +4003,17 @@
       <c r="F115" s="7"/>
       <c r="G115" s="7"/>
       <c t="s" r="H115" s="8">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="I115" s="8"/>
       <c r="J115" s="8"/>
       <c r="K115" s="8"/>
       <c r="L115" s="9">
-        <v>4</v>
+        <v>45</v>
       </c>
       <c r="M115" s="9"/>
       <c t="s" r="N115" s="7">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="116" ht="24.75" customHeight="1">
@@ -4009,7 +4021,7 @@
         <v>113</v>
       </c>
       <c t="s" r="B116" s="7">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
@@ -4017,17 +4029,17 @@
       <c r="F116" s="7"/>
       <c r="G116" s="7"/>
       <c t="s" r="H116" s="8">
-        <v>41</v>
+        <v>152</v>
       </c>
       <c r="I116" s="8"/>
       <c r="J116" s="8"/>
       <c r="K116" s="8"/>
       <c r="L116" s="9">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M116" s="9"/>
       <c t="s" r="N116" s="7">
-        <v>9</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117" ht="25.5" customHeight="1">
@@ -4035,7 +4047,7 @@
         <v>114</v>
       </c>
       <c t="s" r="B117" s="7">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C117" s="7"/>
       <c r="D117" s="7"/>
@@ -4043,17 +4055,17 @@
       <c r="F117" s="7"/>
       <c r="G117" s="7"/>
       <c t="s" r="H117" s="8">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="I117" s="8"/>
       <c r="J117" s="8"/>
       <c r="K117" s="8"/>
       <c r="L117" s="9">
-        <v>133.65000000000001</v>
+        <v>34</v>
       </c>
       <c r="M117" s="9"/>
       <c t="s" r="N117" s="7">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="118" ht="25.5" customHeight="1">
@@ -4061,7 +4073,7 @@
         <v>115</v>
       </c>
       <c t="s" r="B118" s="7">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C118" s="7"/>
       <c r="D118" s="7"/>
@@ -4069,13 +4081,13 @@
       <c r="F118" s="7"/>
       <c r="G118" s="7"/>
       <c t="s" r="H118" s="8">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="I118" s="8"/>
       <c r="J118" s="8"/>
       <c r="K118" s="8"/>
       <c r="L118" s="9">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="M118" s="9"/>
       <c t="s" r="N118" s="7">
@@ -4095,13 +4107,13 @@
       <c r="F119" s="7"/>
       <c r="G119" s="7"/>
       <c t="s" r="H119" s="8">
-        <v>9</v>
+        <v>158</v>
       </c>
       <c r="I119" s="8"/>
       <c r="J119" s="8"/>
       <c r="K119" s="8"/>
       <c r="L119" s="9">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="M119" s="9"/>
       <c t="s" r="N119" s="7">
@@ -4113,7 +4125,7 @@
         <v>117</v>
       </c>
       <c t="s" r="B120" s="7">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C120" s="7"/>
       <c r="D120" s="7"/>
@@ -4121,17 +4133,17 @@
       <c r="F120" s="7"/>
       <c r="G120" s="7"/>
       <c t="s" r="H120" s="8">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="I120" s="8"/>
       <c r="J120" s="8"/>
       <c r="K120" s="8"/>
       <c r="L120" s="9">
-        <v>15</v>
+        <v>133.65000000000001</v>
       </c>
       <c r="M120" s="9"/>
       <c t="s" r="N120" s="7">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="121" ht="24.75" customHeight="1">
@@ -4139,7 +4151,7 @@
         <v>118</v>
       </c>
       <c t="s" r="B121" s="7">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
@@ -4147,13 +4159,13 @@
       <c r="F121" s="7"/>
       <c r="G121" s="7"/>
       <c t="s" r="H121" s="8">
-        <v>41</v>
+        <v>8</v>
       </c>
       <c r="I121" s="8"/>
       <c r="J121" s="8"/>
       <c r="K121" s="8"/>
       <c r="L121" s="9">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="M121" s="9"/>
       <c t="s" r="N121" s="7">
@@ -4165,7 +4177,7 @@
         <v>119</v>
       </c>
       <c t="s" r="B122" s="7">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
@@ -4173,13 +4185,13 @@
       <c r="F122" s="7"/>
       <c r="G122" s="7"/>
       <c t="s" r="H122" s="8">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I122" s="8"/>
       <c r="J122" s="8"/>
       <c r="K122" s="8"/>
       <c r="L122" s="9">
-        <v>45</v>
+        <v>60</v>
       </c>
       <c r="M122" s="9"/>
       <c t="s" r="N122" s="7">
@@ -4191,7 +4203,7 @@
         <v>120</v>
       </c>
       <c t="s" r="B123" s="7">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C123" s="7"/>
       <c r="D123" s="7"/>
@@ -4199,13 +4211,13 @@
       <c r="F123" s="7"/>
       <c r="G123" s="7"/>
       <c t="s" r="H123" s="8">
-        <v>8</v>
+        <v>156</v>
       </c>
       <c r="I123" s="8"/>
       <c r="J123" s="8"/>
       <c r="K123" s="8"/>
       <c r="L123" s="9">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="M123" s="9"/>
       <c t="s" r="N123" s="7">
@@ -4217,7 +4229,7 @@
         <v>121</v>
       </c>
       <c t="s" r="B124" s="7">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C124" s="7"/>
       <c r="D124" s="7"/>
@@ -4225,17 +4237,17 @@
       <c r="F124" s="7"/>
       <c r="G124" s="7"/>
       <c t="s" r="H124" s="8">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="I124" s="8"/>
       <c r="J124" s="8"/>
       <c r="K124" s="8"/>
       <c r="L124" s="9">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="M124" s="9"/>
       <c t="s" r="N124" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
     </row>
     <row r="125" ht="25.5" customHeight="1">
@@ -4243,7 +4255,7 @@
         <v>122</v>
       </c>
       <c t="s" r="B125" s="7">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
@@ -4251,13 +4263,13 @@
       <c r="F125" s="7"/>
       <c r="G125" s="7"/>
       <c t="s" r="H125" s="8">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I125" s="8"/>
       <c r="J125" s="8"/>
       <c r="K125" s="8"/>
       <c r="L125" s="9">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="M125" s="9"/>
       <c t="s" r="N125" s="7">
@@ -4269,7 +4281,7 @@
         <v>123</v>
       </c>
       <c t="s" r="B126" s="7">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C126" s="7"/>
       <c r="D126" s="7"/>
@@ -4277,17 +4289,17 @@
       <c r="F126" s="7"/>
       <c r="G126" s="7"/>
       <c t="s" r="H126" s="8">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="I126" s="8"/>
       <c r="J126" s="8"/>
       <c r="K126" s="8"/>
       <c r="L126" s="9">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="M126" s="9"/>
       <c t="s" r="N126" s="7">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="127" ht="25.5" customHeight="1">
@@ -4295,7 +4307,7 @@
         <v>124</v>
       </c>
       <c t="s" r="B127" s="7">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
@@ -4303,17 +4315,17 @@
       <c r="F127" s="7"/>
       <c r="G127" s="7"/>
       <c t="s" r="H127" s="8">
-        <v>54</v>
+        <v>156</v>
       </c>
       <c r="I127" s="8"/>
       <c r="J127" s="8"/>
       <c r="K127" s="8"/>
       <c r="L127" s="9">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="M127" s="9"/>
       <c t="s" r="N127" s="7">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" ht="25.5" customHeight="1">
@@ -4321,7 +4333,7 @@
         <v>125</v>
       </c>
       <c t="s" r="B128" s="7">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C128" s="7"/>
       <c r="D128" s="7"/>
@@ -4329,51 +4341,129 @@
       <c r="F128" s="7"/>
       <c r="G128" s="7"/>
       <c t="s" r="H128" s="8">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="I128" s="8"/>
       <c r="J128" s="8"/>
       <c r="K128" s="8"/>
       <c r="L128" s="9">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="M128" s="9"/>
       <c t="s" r="N128" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="129" ht="25.5" customHeight="1">
-      <c r="K129" s="10">
-        <v>6508.3100000000004</v>
-      </c>
-      <c r="L129" s="10"/>
-      <c r="M129" s="10"/>
-      <c r="N129" s="10"/>
-    </row>
-    <row r="130" ht="16.5" customHeight="1">
-      <c t="s" r="A130" s="11">
+    <row r="129" ht="24.75" customHeight="1">
+      <c r="A129" s="6">
+        <v>126</v>
+      </c>
+      <c t="s" r="B129" s="7">
         <v>168</v>
       </c>
-      <c r="B130" s="11"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11"/>
-      <c t="s" r="F130" s="12">
+      <c r="C129" s="7"/>
+      <c r="D129" s="7"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7"/>
+      <c r="G129" s="7"/>
+      <c t="s" r="H129" s="8">
+        <v>28</v>
+      </c>
+      <c r="I129" s="8"/>
+      <c r="J129" s="8"/>
+      <c r="K129" s="8"/>
+      <c r="L129" s="9">
+        <v>40</v>
+      </c>
+      <c r="M129" s="9"/>
+      <c t="s" r="N129" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="130" ht="25.5" customHeight="1">
+      <c r="A130" s="6">
+        <v>127</v>
+      </c>
+      <c t="s" r="B130" s="7">
         <v>169</v>
       </c>
-      <c r="G130" s="12"/>
-      <c r="H130" s="13"/>
-      <c t="s" r="I130" s="14">
+      <c r="C130" s="7"/>
+      <c r="D130" s="7"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="7"/>
+      <c t="s" r="H130" s="8">
+        <v>54</v>
+      </c>
+      <c r="I130" s="8"/>
+      <c r="J130" s="8"/>
+      <c r="K130" s="8"/>
+      <c r="L130" s="9">
+        <v>80</v>
+      </c>
+      <c r="M130" s="9"/>
+      <c t="s" r="N130" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="131" ht="24.75" customHeight="1">
+      <c r="A131" s="6">
+        <v>128</v>
+      </c>
+      <c t="s" r="B131" s="7">
         <v>170</v>
       </c>
-      <c r="J130" s="14"/>
-      <c r="K130" s="14"/>
-      <c r="L130" s="14"/>
-      <c r="M130" s="14"/>
-      <c r="N130" s="14"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="7"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7"/>
+      <c t="s" r="H131" s="8">
+        <v>171</v>
+      </c>
+      <c r="I131" s="8"/>
+      <c r="J131" s="8"/>
+      <c r="K131" s="8"/>
+      <c r="L131" s="9">
+        <v>20</v>
+      </c>
+      <c r="M131" s="9"/>
+      <c t="s" r="N131" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="132" ht="26.25" customHeight="1">
+      <c r="K132" s="10">
+        <v>6810.3100000000004</v>
+      </c>
+      <c r="L132" s="10"/>
+      <c r="M132" s="10"/>
+      <c r="N132" s="10"/>
+    </row>
+    <row r="133" ht="16.5" customHeight="1">
+      <c t="s" r="A133" s="11">
+        <v>172</v>
+      </c>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
+      <c t="s" r="F133" s="12">
+        <v>173</v>
+      </c>
+      <c r="G133" s="12"/>
+      <c r="H133" s="13"/>
+      <c t="s" r="I133" s="14">
+        <v>174</v>
+      </c>
+      <c r="J133" s="14"/>
+      <c r="K133" s="14"/>
+      <c r="L133" s="14"/>
+      <c r="M133" s="14"/>
+      <c r="N133" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="386">
+  <mergeCells count="395">
     <mergeCell ref="C1:L1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="G2:I2"/>
@@ -4756,10 +4846,19 @@
     <mergeCell ref="B128:G128"/>
     <mergeCell ref="H128:K128"/>
     <mergeCell ref="L128:M128"/>
-    <mergeCell ref="K129:N129"/>
-    <mergeCell ref="A130:E130"/>
-    <mergeCell ref="F130:G130"/>
-    <mergeCell ref="I130:N130"/>
+    <mergeCell ref="B129:G129"/>
+    <mergeCell ref="H129:K129"/>
+    <mergeCell ref="L129:M129"/>
+    <mergeCell ref="B130:G130"/>
+    <mergeCell ref="H130:K130"/>
+    <mergeCell ref="L130:M130"/>
+    <mergeCell ref="B131:G131"/>
+    <mergeCell ref="H131:K131"/>
+    <mergeCell ref="L131:M131"/>
+    <mergeCell ref="K132:N132"/>
+    <mergeCell ref="A133:E133"/>
+    <mergeCell ref="F133:G133"/>
+    <mergeCell ref="I133:N133"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait"/>
